--- a/tests/expected_results/result_test_write_results_bondora_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_bondora_missing_month.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
@@ -647,7 +644,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,11 +725,11 @@
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
+      <c r="C3" s="2" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1.88</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>-1259</v>

--- a/tests/expected_results/result_test_write_results_bondora_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_bondora_missing_month.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t xml:space="preserve">Endsaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein-/Auszahlungen</t>
   </si>
   <si>
     <t xml:space="preserve">Investitionen</t>
@@ -220,10 +223,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,13 +236,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,13 +277,16 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>43344</v>
@@ -291,24 +298,27 @@
         <v>20.7</v>
       </c>
       <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>-455</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>282.71</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>171.8</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>-12.43</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>159.37</v>
       </c>
-      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -323,24 +333,27 @@
         <v>6.8</v>
       </c>
       <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>-419</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>238.52</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>166.58</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>-44.74</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="K3" s="2" t="n">
         <v>121.84</v>
       </c>
-      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -355,27 +368,28 @@
         <v>1.88</v>
       </c>
       <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>-385</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>188.97</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>191.1</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>-41.6</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="K4" s="2" t="n">
         <v>149.51</v>
       </c>
-      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="P4" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
@@ -396,10 +410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,13 +422,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -448,16 +463,19 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>21.19</v>
@@ -478,6 +496,9 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -485,7 +506,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>21.19</v>
@@ -494,18 +515,21 @@
         <v>20.7</v>
       </c>
       <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>-455</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>282.71</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>171.8</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>-12.43</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="K3" s="2" t="n">
         <v>159.37</v>
       </c>
     </row>
@@ -513,7 +537,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>20.7</v>
@@ -534,6 +558,9 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,7 +568,7 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>20.7</v>
@@ -550,18 +577,21 @@
         <v>6.8</v>
       </c>
       <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>-419</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>238.52</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="I5" s="2" t="n">
         <v>166.58</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>-44.74</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="K5" s="2" t="n">
         <v>121.84</v>
       </c>
     </row>
@@ -569,7 +599,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>6.8</v>
@@ -578,18 +608,21 @@
         <v>1.88</v>
       </c>
       <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>-385</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>188.97</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>191.1</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>-41.6</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="K6" s="2" t="n">
         <v>149.51</v>
       </c>
     </row>
@@ -597,7 +630,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>1.88</v>
@@ -618,6 +651,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -641,10 +677,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,13 +689,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="10" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,13 +727,16 @@
       <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>21.19</v>
@@ -705,24 +745,27 @@
         <v>1.88</v>
       </c>
       <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>-1259</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>710.2</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>529.48</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>-98.76</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>430.72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="n">
@@ -732,18 +775,21 @@
         <v>1.88</v>
       </c>
       <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>-1259</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>710.2</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>529.48</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>-98.76</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>430.72</v>
       </c>
     </row>

--- a/tests/expected_results/result_test_write_results_bondora_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_bondora_missing_month.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Monatsergebnisse" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Gesamtergebnis" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Daily results" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Monthly results" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Total results" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -182,11 +182,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,10 +204,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -225,170 +225,164 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>43344</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>21.19</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>20.7</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>-455</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>282.71</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>171.8</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>-12.43</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>159.37</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="n">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="n">
         <v>43405</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>20.7</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>6.8</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>-419</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>238.52</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>166.58</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="3" t="n">
         <v>-44.74</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>121.84</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="n">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="n">
         <v>43435</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>6.8</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>-385</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>188.97</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>191.1</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="3" t="n">
         <v>-41.6</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>149.51</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -418,242 +412,242 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>21.19</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>21.19</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>21.19</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>20.7</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>-455</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>282.71</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>171.8</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="3" t="n">
         <v>-12.43</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>159.37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>20.7</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>20.7</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>20.7</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>6.8</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>-419</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>238.52</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>166.58</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="3" t="n">
         <v>-44.74</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>121.84</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>6.8</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>-385</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>188.97</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>191.1</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="3" t="n">
         <v>-41.6</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>149.51</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -679,117 +673,117 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="11" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="11" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>21.19</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>-1259</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>710.2</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>529.48</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>-98.76</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>430.72</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="n">
         <v>21.19</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>-1259</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>710.2</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>529.48</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>-98.76</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="3" t="n">
         <v>430.72</v>
       </c>
     </row>
